--- a/data/scType_Updated.xlsx
+++ b/data/scType_Updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Cai lab\Anti-DE\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Cai lab\Knockout\TERT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077E72CC-CF0C-4351-837A-94B536308BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5452D2-2493-4F48-93A2-39A56A5C255B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="1980" windowWidth="23355" windowHeight="13515" xr2:uid="{D279F44A-60F2-4EB4-9CBE-A3EBBFA2CC2B}"/>
+    <workbookView xWindow="1740" yWindow="930" windowWidth="23355" windowHeight="13515" xr2:uid="{D279F44A-60F2-4EB4-9CBE-A3EBBFA2CC2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="441">
   <si>
     <t>Immune system</t>
   </si>
@@ -1356,6 +1356,9 @@
   </si>
   <si>
     <t>shortName</t>
+  </si>
+  <si>
+    <t>γδ-T cells</t>
   </si>
 </sst>
 </file>
@@ -1720,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEC8561-272B-436B-A80B-5154FB13CE5F}">
   <dimension ref="A1:E233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1924,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>440</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
